--- a/Climate_indices/ARC_Arcadia_weather_station_metadata.xlsx
+++ b/Climate_indices/ARC_Arcadia_weather_station_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arcagricza2-my.sharepoint.com/personal/roffes_arc_agric_za/Documents/Sarah/WRC_project/App/Indices_sample_data_code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{22A57FE0-3AA6-405A-BC21-271EDD786CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EAD25A4-3377-45FC-8418-33E74C8B95F9}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{22A57FE0-3AA6-405A-BC21-271EDD786CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A6A3C03-F8B2-4F13-94BD-6A3932DBC3FC}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A5E7FC2-6305-4C5A-8B71-BE8C6BCB2E2D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2A5E7FC2-6305-4C5A-8B71-BE8C6BCB2E2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Weather_station_metadata" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Weather station name</t>
   </si>
@@ -179,6 +179,12 @@
   </si>
   <si>
     <t>Total Potential Evapotranspiration</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>Average Wind Speed</t>
   </si>
 </sst>
 </file>
@@ -1073,10 +1079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A2FD49-5DCB-4844-8684-6EEFDD4FCC0F}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1241,12 +1247,23 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>25</v>
       </c>
     </row>
